--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
-    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: MDudek-ICS),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON)</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),,(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
+    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),,(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018)</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Microsoft Ransomware as a Service),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant FIN12 Oct 2021),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Microsoft Ransomware as a Service),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: ICS-CERT December 2018),(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -572,19 +572,19 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+    <t>,,(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
@@ -593,28 +593,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Microsoft Ransomware as a Service),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant FIN12 Oct 2021),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Microsoft Ransomware as a Service),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: ICS-CERT December 2018),(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Jos Wetzels January 2018),(Citation: The Office of Nuclear Reactor Regulation)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,64 +557,64 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: DHS CISA February 2019),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Jos Wetzels January 2018),(Citation: The Office of Nuclear Reactor Regulation)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),,(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),,(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye FIN6 Apr 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Microsoft Ransomware as a Service),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: FireEye TRITON)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,64 +557,64 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),,(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye FIN6 Apr 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Microsoft Ransomware as a Service),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: FireEye TRITON)</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),,(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,64 +557,64 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>,,(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
+  </si>
+  <si>
+    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),,(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: FireEye TRITON),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation)</t>
-  </si>
-  <si>
-    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant FIN12 Oct 2021),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: FireEye TRITON),(Citation: MDudek-ICS),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: ESET Industroyer)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
-  </si>
-  <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>,,(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant FIN12 Oct 2021),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: FireEye TRITON),(Citation: MDudek-ICS),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Mandiant FIN12 Oct 2021),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: FireEye TRITON)</t>
+  </si>
+  <si>
+    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020)</t>
+    <t>,,(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017)</t>
   </si>
   <si>
     <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Mandiant FIN12 Oct 2021),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: The Office of Nuclear Reactor Regulation),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: FireEye TRITON)</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: FireEye TRITON),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018)</t>
   </si>
   <si>
     <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
   </si>
   <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,64 +557,64 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
-  </si>
-  <si>
-    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>,,(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye FIN6 Apr 2019),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: MDudek-ICS),(Citation: FireEye TRITON),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018)</t>
-  </si>
-  <si>
-    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,13 +557,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -572,49 +572,49 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
+    <t>,,(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),,(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye FIN6 Apr 2019),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Mandiant FIN12 Oct 2021),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
+  </si>
+  <si>
+    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-software.xlsx
@@ -557,34 +557,34 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: CISA-AA22-103A)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer)</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Brubaker-Incontroller)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 ESET April 2022)</t>
   </si>
   <si>
     <t>(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
@@ -593,28 +593,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,(Citation: Tom Fakterman August 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Mandiant FIN12 Oct 2021),,(Citation: Kelly Jackson Higgins)</t>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),,(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Mandiant FIN12 Oct 2021),,(Citation: Kelly Jackson Higgins)</t>
   </si>
   <si>
     <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
-  </si>
-  <si>
-    <t>,,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: MDudek-ICS),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: FireEye TRITON),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>
